--- a/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v4.1.xlsx
+++ b/Proyecto/Documentacion/PREGAME/1. ELICITACION/1.6 Backlog/G4_Backlog-Sprint_v4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panch\Desktop\University\Semester-VI\Analisis\7185_G4\Proyecto\Documentacion\PREGAME\1. ELICITACION\1.6 Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F10D9-B67B-41B3-B477-88D2AA95E02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1C4845-2C01-4E6D-8C29-D853066EAE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,18 +773,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -793,17 +798,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2FAC20-163D-45B0-A5B9-025EB98D3DD0}">
   <dimension ref="C3:V30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3789,28 +3789,28 @@
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O29" s="46" t="s">
+      <c r="O29" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
     </row>
     <row r="30" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3830,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA32CC8-5252-4C13-9993-DCD0D0D1BE9B}">
   <dimension ref="C3:S81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36:R37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3948,23 +3948,23 @@
         <f>'burdonchart-sprint1'!C6</f>
         <v>4</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="35">
         <f>'burdonchart-sprint1'!D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="35">
         <f>'burdonchart-sprint1'!E6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="35">
         <f>'burdonchart-sprint1'!F6</f>
         <v>2</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="35">
         <f>'burdonchart-sprint1'!G6</f>
         <v>2</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="35">
         <f>'burdonchart-sprint1'!H6</f>
         <v>0</v>
       </c>
@@ -3982,23 +3982,23 @@
         <f>'burdonchart-sprint1'!C7</f>
         <v>2</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="35">
         <f>'burdonchart-sprint1'!D7</f>
         <v>2</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="35">
         <f>'burdonchart-sprint1'!E7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="35">
         <f>'burdonchart-sprint1'!F7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="35">
         <f>'burdonchart-sprint1'!G7</f>
         <v>1</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="35">
         <f>'burdonchart-sprint1'!H7</f>
         <v>0</v>
       </c>
@@ -4016,23 +4016,23 @@
         <f>'burdonchart-sprint1'!C8</f>
         <v>1</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="35">
         <f>'burdonchart-sprint1'!D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="35">
         <f>'burdonchart-sprint1'!E8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="35">
         <f>'burdonchart-sprint1'!F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="35">
         <f>'burdonchart-sprint1'!G8</f>
         <v>0</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="35">
         <f>'burdonchart-sprint1'!H8</f>
         <v>0</v>
       </c>
@@ -4050,23 +4050,23 @@
         <f>'burdonchart-sprint1'!C9</f>
         <v>4</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="35">
         <f>'burdonchart-sprint1'!D9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="35">
         <f>'burdonchart-sprint1'!E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="35">
         <f>'burdonchart-sprint1'!F9</f>
         <v>2</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="35">
         <f>'burdonchart-sprint1'!G9</f>
         <v>2</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="35">
         <f>'burdonchart-sprint1'!H9</f>
         <v>1</v>
       </c>
@@ -4084,23 +4084,23 @@
         <f>'burdonchart-sprint1'!C10</f>
         <v>2</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="35">
         <f>'burdonchart-sprint1'!D10</f>
         <v>1</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="35">
         <f>'burdonchart-sprint1'!E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="35">
         <f>'burdonchart-sprint1'!F10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="35">
         <f>'burdonchart-sprint1'!G10</f>
         <v>0</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="35">
         <f>'burdonchart-sprint1'!H10</f>
         <v>0</v>
       </c>
@@ -4118,23 +4118,23 @@
         <f>'burdonchart-sprint1'!C11</f>
         <v>1</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="35">
         <f>'burdonchart-sprint1'!D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="35">
         <f>'burdonchart-sprint1'!E11</f>
         <v>1</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="35">
         <f>'burdonchart-sprint1'!F11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="35">
         <f>'burdonchart-sprint1'!G11</f>
         <v>0</v>
       </c>
-      <c r="I11" s="47">
+      <c r="I11" s="35">
         <f>'burdonchart-sprint1'!H11</f>
         <v>0</v>
       </c>
@@ -4152,23 +4152,23 @@
         <f>'burdonchart-sprint1'!C12</f>
         <v>1</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="35">
         <f>'burdonchart-sprint1'!D12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="35">
         <f>'burdonchart-sprint1'!E12</f>
         <v>1</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="35">
         <f>'burdonchart-sprint1'!F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="35">
         <f>'burdonchart-sprint1'!G12</f>
         <v>0</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="35">
         <f>'burdonchart-sprint1'!H12</f>
         <v>0</v>
       </c>
@@ -4186,23 +4186,23 @@
         <f>'burdonchart-sprint1'!C13</f>
         <v>2</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="35">
         <f>'burdonchart-sprint1'!D13</f>
         <v>2</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="35">
         <f>'burdonchart-sprint1'!E13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="35">
         <f>'burdonchart-sprint1'!F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="35">
         <f>'burdonchart-sprint1'!G13</f>
         <v>0</v>
       </c>
-      <c r="I13" s="47">
+      <c r="I13" s="35">
         <f>'burdonchart-sprint1'!H13</f>
         <v>0</v>
       </c>
@@ -4220,23 +4220,23 @@
         <f>'burdonchart-sprint1'!C14</f>
         <v>2</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="35">
         <f>'burdonchart-sprint1'!D14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="35">
         <f>'burdonchart-sprint1'!E14</f>
         <v>1</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="35">
         <f>'burdonchart-sprint1'!F14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="35">
         <f>'burdonchart-sprint1'!G14</f>
         <v>0</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="35">
         <f>'burdonchart-sprint1'!H14</f>
         <v>0</v>
       </c>
@@ -4254,23 +4254,23 @@
         <f>'burdonchart-sprint1'!C15</f>
         <v>4</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="35">
         <f>'burdonchart-sprint1'!D15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="35">
         <f>'burdonchart-sprint1'!E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="35">
         <f>'burdonchart-sprint1'!F15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="35">
         <f>'burdonchart-sprint1'!G15</f>
         <v>2</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="35">
         <f>'burdonchart-sprint1'!H15</f>
         <v>0</v>
       </c>
@@ -4288,23 +4288,23 @@
         <f>'burdonchart-sprint1'!C16</f>
         <v>2</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="35">
         <f>'burdonchart-sprint1'!D16</f>
         <v>2</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="35">
         <f>'burdonchart-sprint1'!E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="35">
         <f>'burdonchart-sprint1'!F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="35">
         <f>'burdonchart-sprint1'!G16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="35">
         <f>'burdonchart-sprint1'!H16</f>
         <v>0</v>
       </c>
@@ -4322,23 +4322,23 @@
         <f>'burdonchart-sprint1'!C17</f>
         <v>1</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="35">
         <f>'burdonchart-sprint1'!D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="35">
         <f>'burdonchart-sprint1'!E17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="35">
         <f>'burdonchart-sprint1'!F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="35">
         <f>'burdonchart-sprint1'!G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="35">
         <f>'burdonchart-sprint1'!H17</f>
         <v>0</v>
       </c>
@@ -4356,23 +4356,23 @@
         <f>'burdonchart-sprint1'!C18</f>
         <v>1</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="35">
         <f>'burdonchart-sprint1'!D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="35">
         <f>'burdonchart-sprint1'!E18</f>
         <v>1</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="35">
         <f>'burdonchart-sprint1'!F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="35">
         <f>'burdonchart-sprint1'!G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="35">
         <f>'burdonchart-sprint1'!H18</f>
         <v>0</v>
       </c>
@@ -4390,23 +4390,23 @@
         <f>'burdonchart-sprint1'!C19</f>
         <v>3</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="35">
         <f>'burdonchart-sprint1'!D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="35">
         <f>'burdonchart-sprint1'!E19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="35">
         <f>'burdonchart-sprint1'!F19</f>
         <v>2</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="35">
         <f>'burdonchart-sprint1'!G19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="35">
         <f>'burdonchart-sprint1'!H19</f>
         <v>0</v>
       </c>
@@ -4424,23 +4424,23 @@
         <f>'burdonchart-sprint1'!C20</f>
         <v>2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="35">
         <f>'burdonchart-sprint1'!D20</f>
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="35">
         <f>'burdonchart-sprint1'!E20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="35">
         <f>'burdonchart-sprint1'!F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="35">
         <f>'burdonchart-sprint1'!G20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="35">
         <f>'burdonchart-sprint1'!H20</f>
         <v>0</v>
       </c>
@@ -4458,23 +4458,23 @@
         <f>'burdonchart-sprint1'!C21</f>
         <v>1</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="35">
         <f>'burdonchart-sprint1'!D21</f>
         <v>0</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="35">
         <f>'burdonchart-sprint1'!E21</f>
         <v>1</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="35">
         <f>'burdonchart-sprint1'!F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="35">
         <f>'burdonchart-sprint1'!G21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="47">
+      <c r="I21" s="35">
         <f>'burdonchart-sprint1'!H21</f>
         <v>0</v>
       </c>
@@ -4492,23 +4492,23 @@
         <f>'burdonchart-sprint1'!C22</f>
         <v>3</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="35">
         <f>'burdonchart-sprint1'!D22</f>
         <v>0</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="35">
         <f>'burdonchart-sprint1'!E22</f>
         <v>0</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="35">
         <f>'burdonchart-sprint1'!F22</f>
         <v>2</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="35">
         <f>'burdonchart-sprint1'!G22</f>
         <v>2</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="35">
         <f>'burdonchart-sprint1'!H22</f>
         <v>0</v>
       </c>
@@ -4526,23 +4526,23 @@
         <f>'burdonchart-sprint2'!D4</f>
         <v>1</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="36">
         <f>'burdonchart-sprint2'!E4</f>
         <v>0</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="36">
         <f>'burdonchart-sprint2'!F4</f>
         <v>0</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="36">
         <f>'burdonchart-sprint2'!G4</f>
         <v>0</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="36">
         <f>'burdonchart-sprint2'!H4</f>
         <v>0</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="36">
         <f>'burdonchart-sprint2'!I4</f>
         <v>1</v>
       </c>
@@ -4560,23 +4560,23 @@
         <f>'burdonchart-sprint2'!D5</f>
         <v>1</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="36">
         <f>'burdonchart-sprint2'!E5</f>
         <v>0</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="36">
         <f>'burdonchart-sprint2'!F5</f>
         <v>0</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="36">
         <f>'burdonchart-sprint2'!G5</f>
         <v>0</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="36">
         <f>'burdonchart-sprint2'!H5</f>
         <v>0</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="36">
         <f>'burdonchart-sprint2'!I5</f>
         <v>1</v>
       </c>
@@ -4594,23 +4594,23 @@
         <f>'burdonchart-sprint2'!D6</f>
         <v>1</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="36">
         <f>'burdonchart-sprint2'!E6</f>
         <v>0</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="36">
         <f>'burdonchart-sprint2'!F6</f>
         <v>0</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="36">
         <f>'burdonchart-sprint2'!G6</f>
         <v>0</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="36">
         <f>'burdonchart-sprint2'!H6</f>
         <v>0</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="36">
         <f>'burdonchart-sprint2'!I6</f>
         <v>1</v>
       </c>
@@ -4628,23 +4628,23 @@
         <f>'burdonchart-sprint2'!D7</f>
         <v>1</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="36">
         <f>'burdonchart-sprint2'!E7</f>
         <v>0</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="36">
         <f>'burdonchart-sprint2'!F7</f>
         <v>0</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="36">
         <f>'burdonchart-sprint2'!G7</f>
         <v>0</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="36">
         <f>'burdonchart-sprint2'!H7</f>
         <v>1</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="36">
         <f>'burdonchart-sprint2'!I7</f>
         <v>0</v>
       </c>
@@ -4662,23 +4662,23 @@
         <f>'burdonchart-sprint2'!D8</f>
         <v>1</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="36">
         <f>'burdonchart-sprint2'!E8</f>
         <v>0</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="36">
         <f>'burdonchart-sprint2'!F8</f>
         <v>0</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="36">
         <f>'burdonchart-sprint2'!G8</f>
         <v>0</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="36">
         <f>'burdonchart-sprint2'!H8</f>
         <v>1</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="36">
         <f>'burdonchart-sprint2'!I8</f>
         <v>0</v>
       </c>
@@ -4696,23 +4696,23 @@
         <f>'burdonchart-sprint2'!D9</f>
         <v>1</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="36">
         <f>'burdonchart-sprint2'!E9</f>
         <v>0</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="36">
         <f>'burdonchart-sprint2'!F9</f>
         <v>0</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="36">
         <f>'burdonchart-sprint2'!G9</f>
         <v>0</v>
       </c>
-      <c r="H28" s="48">
+      <c r="H28" s="36">
         <f>'burdonchart-sprint2'!H9</f>
         <v>1</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="36">
         <f>'burdonchart-sprint2'!I9</f>
         <v>0</v>
       </c>
@@ -4720,16 +4720,16 @@
         <f t="shared" ref="J28:J42" si="2">SUM(E28:I28)</f>
         <v>1</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="11" t="str">
@@ -4740,23 +4740,23 @@
         <f>'burdonchart-sprint2'!D10</f>
         <v>1</v>
       </c>
-      <c r="E29" s="48">
+      <c r="E29" s="36">
         <f>'burdonchart-sprint2'!E10</f>
         <v>0</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="36">
         <f>'burdonchart-sprint2'!F10</f>
         <v>0</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="36">
         <f>'burdonchart-sprint2'!G10</f>
         <v>0</v>
       </c>
-      <c r="H29" s="48">
+      <c r="H29" s="36">
         <f>'burdonchart-sprint2'!H10</f>
         <v>1</v>
       </c>
-      <c r="I29" s="48">
+      <c r="I29" s="36">
         <f>'burdonchart-sprint2'!I10</f>
         <v>0</v>
       </c>
@@ -4764,16 +4764,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="11" t="str">
@@ -4784,23 +4784,23 @@
         <f>'burdonchart-sprint2'!D11</f>
         <v>1</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="36">
         <f>'burdonchart-sprint2'!E11</f>
         <v>0</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="36">
         <f>'burdonchart-sprint2'!F11</f>
         <v>0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="36">
         <f>'burdonchart-sprint2'!G11</f>
         <v>1</v>
       </c>
-      <c r="H30" s="48">
+      <c r="H30" s="36">
         <f>'burdonchart-sprint2'!H11</f>
         <v>0</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="36">
         <f>'burdonchart-sprint2'!I11</f>
         <v>0</v>
       </c>
@@ -4818,23 +4818,23 @@
         <f>'burdonchart-sprint2'!D12</f>
         <v>1</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="36">
         <f>'burdonchart-sprint2'!E12</f>
         <v>0</v>
       </c>
-      <c r="F31" s="48">
+      <c r="F31" s="36">
         <f>'burdonchart-sprint2'!F12</f>
         <v>0</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="36">
         <f>'burdonchart-sprint2'!G12</f>
         <v>1</v>
       </c>
-      <c r="H31" s="48">
+      <c r="H31" s="36">
         <f>'burdonchart-sprint2'!H12</f>
         <v>0</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="36">
         <f>'burdonchart-sprint2'!I12</f>
         <v>0</v>
       </c>
@@ -4852,23 +4852,23 @@
         <f>'burdonchart-sprint2'!D13</f>
         <v>1</v>
       </c>
-      <c r="E32" s="48">
+      <c r="E32" s="36">
         <f>'burdonchart-sprint2'!E13</f>
         <v>0</v>
       </c>
-      <c r="F32" s="48">
+      <c r="F32" s="36">
         <f>'burdonchart-sprint2'!F13</f>
         <v>0</v>
       </c>
-      <c r="G32" s="48">
+      <c r="G32" s="36">
         <f>'burdonchart-sprint2'!G13</f>
         <v>1</v>
       </c>
-      <c r="H32" s="48">
+      <c r="H32" s="36">
         <f>'burdonchart-sprint2'!H13</f>
         <v>0</v>
       </c>
-      <c r="I32" s="48">
+      <c r="I32" s="36">
         <f>'burdonchart-sprint2'!I13</f>
         <v>0</v>
       </c>
@@ -4886,23 +4886,23 @@
         <f>'burdonchart-sprint2'!D14</f>
         <v>1</v>
       </c>
-      <c r="E33" s="48">
+      <c r="E33" s="36">
         <f>'burdonchart-sprint2'!E14</f>
         <v>0</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33" s="36">
         <f>'burdonchart-sprint2'!F14</f>
         <v>0</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="36">
         <f>'burdonchart-sprint2'!G14</f>
         <v>1</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33" s="36">
         <f>'burdonchart-sprint2'!H14</f>
         <v>0</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="36">
         <f>'burdonchart-sprint2'!I14</f>
         <v>0</v>
       </c>
@@ -4920,23 +4920,23 @@
         <f>'burdonchart-sprint2'!D15</f>
         <v>1</v>
       </c>
-      <c r="E34" s="48">
+      <c r="E34" s="36">
         <f>'burdonchart-sprint2'!E15</f>
         <v>0</v>
       </c>
-      <c r="F34" s="48">
+      <c r="F34" s="36">
         <f>'burdonchart-sprint2'!F15</f>
         <v>1</v>
       </c>
-      <c r="G34" s="48">
+      <c r="G34" s="36">
         <f>'burdonchart-sprint2'!G15</f>
         <v>0</v>
       </c>
-      <c r="H34" s="48">
+      <c r="H34" s="36">
         <f>'burdonchart-sprint2'!H15</f>
         <v>0</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="36">
         <f>'burdonchart-sprint2'!I15</f>
         <v>0</v>
       </c>
@@ -4954,23 +4954,23 @@
         <f>'burdonchart-sprint2'!D16</f>
         <v>1</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="36">
         <f>'burdonchart-sprint2'!E16</f>
         <v>0</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="36">
         <f>'burdonchart-sprint2'!F16</f>
         <v>1</v>
       </c>
-      <c r="G35" s="48">
+      <c r="G35" s="36">
         <f>'burdonchart-sprint2'!G16</f>
         <v>0</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35" s="36">
         <f>'burdonchart-sprint2'!H16</f>
         <v>0</v>
       </c>
-      <c r="I35" s="48">
+      <c r="I35" s="36">
         <f>'burdonchart-sprint2'!I16</f>
         <v>0</v>
       </c>
@@ -4988,23 +4988,23 @@
         <f>'burdonchart-sprint2'!D17</f>
         <v>1</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="36">
         <f>'burdonchart-sprint2'!E17</f>
         <v>0</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="36">
         <f>'burdonchart-sprint2'!F17</f>
         <v>1</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="36">
         <f>'burdonchart-sprint2'!G17</f>
         <v>0</v>
       </c>
-      <c r="H36" s="48">
+      <c r="H36" s="36">
         <f>'burdonchart-sprint2'!H17</f>
         <v>0</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="36">
         <f>'burdonchart-sprint2'!I17</f>
         <v>0</v>
       </c>
@@ -5022,23 +5022,23 @@
         <f>'burdonchart-sprint3'!D4</f>
         <v>1</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="36">
         <f>'burdonchart-sprint3'!E4</f>
         <v>0</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="36">
         <f>'burdonchart-sprint3'!F4</f>
         <v>0</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="36">
         <f>'burdonchart-sprint3'!G4</f>
         <v>0</v>
       </c>
-      <c r="H37" s="48">
+      <c r="H37" s="36">
         <f>'burdonchart-sprint3'!H4</f>
         <v>0</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="36">
         <f>'burdonchart-sprint3'!I4</f>
         <v>1</v>
       </c>
@@ -5056,23 +5056,23 @@
         <f>'burdonchart-sprint3'!D5</f>
         <v>2</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="36">
         <f>'burdonchart-sprint3'!E5</f>
         <v>0</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="36">
         <f>'burdonchart-sprint3'!F5</f>
         <v>0</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="36">
         <f>'burdonchart-sprint3'!G5</f>
         <v>0</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="36">
         <f>'burdonchart-sprint3'!H5</f>
         <v>0</v>
       </c>
-      <c r="I38" s="48">
+      <c r="I38" s="36">
         <f>'burdonchart-sprint3'!I5</f>
         <v>2</v>
       </c>
@@ -5090,23 +5090,23 @@
         <f>'burdonchart-sprint3'!D6</f>
         <v>1</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="36">
         <f>'burdonchart-sprint3'!E6</f>
         <v>0</v>
       </c>
-      <c r="F39" s="48">
+      <c r="F39" s="36">
         <f>'burdonchart-sprint3'!F6</f>
         <v>0</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="36">
         <f>'burdonchart-sprint3'!G6</f>
         <v>0</v>
       </c>
-      <c r="H39" s="48">
+      <c r="H39" s="36">
         <f>'burdonchart-sprint3'!H6</f>
         <v>0</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="36">
         <f>'burdonchart-sprint3'!I6</f>
         <v>1</v>
       </c>
@@ -5124,23 +5124,23 @@
         <f>'burdonchart-sprint3'!D7</f>
         <v>1</v>
       </c>
-      <c r="E40" s="48">
+      <c r="E40" s="36">
         <f>'burdonchart-sprint3'!E7</f>
         <v>0</v>
       </c>
-      <c r="F40" s="48">
+      <c r="F40" s="36">
         <f>'burdonchart-sprint3'!F7</f>
         <v>0</v>
       </c>
-      <c r="G40" s="48">
+      <c r="G40" s="36">
         <f>'burdonchart-sprint3'!G7</f>
         <v>0</v>
       </c>
-      <c r="H40" s="48">
+      <c r="H40" s="36">
         <f>'burdonchart-sprint3'!H7</f>
         <v>1</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="36">
         <f>'burdonchart-sprint3'!I7</f>
         <v>0</v>
       </c>
@@ -5158,23 +5158,23 @@
         <f>'burdonchart-sprint3'!D8</f>
         <v>1</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="36">
         <f>'burdonchart-sprint3'!E8</f>
         <v>0</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="36">
         <f>'burdonchart-sprint3'!F8</f>
         <v>0</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="36">
         <f>'burdonchart-sprint3'!G8</f>
         <v>0</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="36">
         <f>'burdonchart-sprint3'!H8</f>
         <v>1</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="36">
         <f>'burdonchart-sprint3'!I8</f>
         <v>0</v>
       </c>
@@ -5192,23 +5192,23 @@
         <f>'burdonchart-sprint3'!D9</f>
         <v>1</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="36">
         <f>'burdonchart-sprint3'!E9</f>
         <v>0</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="36">
         <f>'burdonchart-sprint3'!F9</f>
         <v>0</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="36">
         <f>'burdonchart-sprint3'!G9</f>
         <v>0</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="36">
         <f>'burdonchart-sprint3'!H9</f>
         <v>1</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="36">
         <f>'burdonchart-sprint3'!I9</f>
         <v>0</v>
       </c>
@@ -5226,23 +5226,23 @@
         <f>'burdonchart-sprint3'!D10</f>
         <v>1</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="36">
         <f>'burdonchart-sprint3'!E10</f>
         <v>0</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F43" s="36">
         <f>'burdonchart-sprint3'!F10</f>
         <v>0</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="36">
         <f>'burdonchart-sprint3'!G10</f>
         <v>1</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="36">
         <f>'burdonchart-sprint3'!H10</f>
         <v>0</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="36">
         <f>'burdonchart-sprint3'!I10</f>
         <v>0</v>
       </c>
@@ -5260,23 +5260,23 @@
         <f>'burdonchart-sprint3'!D11</f>
         <v>1</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="36">
         <f>'burdonchart-sprint3'!E11</f>
         <v>0</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="36">
         <f>'burdonchart-sprint3'!F11</f>
         <v>0</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="36">
         <f>'burdonchart-sprint3'!G11</f>
         <v>1</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="36">
         <f>'burdonchart-sprint3'!H11</f>
         <v>0</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="36">
         <f>'burdonchart-sprint3'!I11</f>
         <v>0</v>
       </c>
@@ -5294,23 +5294,23 @@
         <f>'burdonchart-sprint3'!D12</f>
         <v>1</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="36">
         <f>'burdonchart-sprint3'!E12</f>
         <v>0</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="36">
         <f>'burdonchart-sprint3'!F12</f>
         <v>0</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="36">
         <f>'burdonchart-sprint3'!G12</f>
         <v>1</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="36">
         <f>'burdonchart-sprint3'!H12</f>
         <v>0</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="36">
         <f>'burdonchart-sprint3'!I12</f>
         <v>0</v>
       </c>
@@ -5328,23 +5328,23 @@
         <f>'burdonchart-sprint3'!D13</f>
         <v>1</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="36">
         <f>'burdonchart-sprint3'!E13</f>
         <v>0</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="36">
         <f>'burdonchart-sprint3'!F13</f>
         <v>1</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="36">
         <f>'burdonchart-sprint3'!G13</f>
         <v>0</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="36">
         <f>'burdonchart-sprint3'!H13</f>
         <v>0</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="36">
         <f>'burdonchart-sprint3'!I13</f>
         <v>0</v>
       </c>
@@ -5362,23 +5362,23 @@
         <f>'burdonchart-sprint3'!D14</f>
         <v>1</v>
       </c>
-      <c r="E47" s="48">
+      <c r="E47" s="36">
         <f>'burdonchart-sprint3'!E14</f>
         <v>0</v>
       </c>
-      <c r="F47" s="48">
+      <c r="F47" s="36">
         <f>'burdonchart-sprint3'!F14</f>
         <v>1</v>
       </c>
-      <c r="G47" s="48">
+      <c r="G47" s="36">
         <f>'burdonchart-sprint3'!G14</f>
         <v>0</v>
       </c>
-      <c r="H47" s="48">
+      <c r="H47" s="36">
         <f>'burdonchart-sprint3'!H14</f>
         <v>0</v>
       </c>
-      <c r="I47" s="48">
+      <c r="I47" s="36">
         <f>'burdonchart-sprint3'!I14</f>
         <v>0</v>
       </c>
@@ -5396,23 +5396,23 @@
         <f>'burdonchart-sprint3'!D15</f>
         <v>1</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="36">
         <f>'burdonchart-sprint3'!E15</f>
         <v>1</v>
       </c>
-      <c r="F48" s="48">
+      <c r="F48" s="36">
         <f>'burdonchart-sprint3'!F15</f>
         <v>0</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="36">
         <f>'burdonchart-sprint3'!G15</f>
         <v>0</v>
       </c>
-      <c r="H48" s="48">
+      <c r="H48" s="36">
         <f>'burdonchart-sprint3'!H15</f>
         <v>0</v>
       </c>
-      <c r="I48" s="48">
+      <c r="I48" s="36">
         <f>'burdonchart-sprint3'!I15</f>
         <v>0</v>
       </c>
@@ -5430,23 +5430,23 @@
         <f>'burdonchart-sprint3'!D16</f>
         <v>1</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="36">
         <f>'burdonchart-sprint3'!E16</f>
         <v>1</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="36">
         <f>'burdonchart-sprint3'!F16</f>
         <v>0</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="36">
         <f>'burdonchart-sprint3'!G16</f>
         <v>0</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="36">
         <f>'burdonchart-sprint3'!H16</f>
         <v>0</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="36">
         <f>'burdonchart-sprint3'!I16</f>
         <v>0</v>
       </c>
@@ -5464,23 +5464,23 @@
         <f>'burdonchart-sprint4'!D4</f>
         <v>2</v>
       </c>
-      <c r="E50" s="48">
+      <c r="E50" s="36">
         <f>'burdonchart-sprint4'!E4</f>
         <v>0</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="36">
         <f>'burdonchart-sprint4'!F4</f>
         <v>0</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="36">
         <f>'burdonchart-sprint4'!G4</f>
         <v>0</v>
       </c>
-      <c r="H50" s="48">
+      <c r="H50" s="36">
         <f>'burdonchart-sprint4'!H4</f>
         <v>1</v>
       </c>
-      <c r="I50" s="48">
+      <c r="I50" s="36">
         <f>'burdonchart-sprint4'!I4</f>
         <v>1</v>
       </c>
@@ -5498,23 +5498,23 @@
         <f>'burdonchart-sprint4'!D5</f>
         <v>2</v>
       </c>
-      <c r="E51" s="48">
+      <c r="E51" s="36">
         <f>'burdonchart-sprint4'!E5</f>
         <v>0</v>
       </c>
-      <c r="F51" s="48">
+      <c r="F51" s="36">
         <f>'burdonchart-sprint4'!F5</f>
         <v>0</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="36">
         <f>'burdonchart-sprint4'!G5</f>
         <v>0</v>
       </c>
-      <c r="H51" s="48">
+      <c r="H51" s="36">
         <f>'burdonchart-sprint4'!H5</f>
         <v>1</v>
       </c>
-      <c r="I51" s="48">
+      <c r="I51" s="36">
         <f>'burdonchart-sprint4'!I5</f>
         <v>1</v>
       </c>
@@ -5532,23 +5532,23 @@
         <f>'burdonchart-sprint4'!D6</f>
         <v>2</v>
       </c>
-      <c r="E52" s="48">
+      <c r="E52" s="36">
         <f>'burdonchart-sprint4'!E6</f>
         <v>0</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="36">
         <f>'burdonchart-sprint4'!F6</f>
         <v>0</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="36">
         <f>'burdonchart-sprint4'!G6</f>
         <v>0</v>
       </c>
-      <c r="H52" s="48">
+      <c r="H52" s="36">
         <f>'burdonchart-sprint4'!H6</f>
         <v>1</v>
       </c>
-      <c r="I52" s="48">
+      <c r="I52" s="36">
         <f>'burdonchart-sprint4'!I6</f>
         <v>1</v>
       </c>
@@ -5566,23 +5566,23 @@
         <f>'burdonchart-sprint4'!D7</f>
         <v>2</v>
       </c>
-      <c r="E53" s="48">
+      <c r="E53" s="36">
         <f>'burdonchart-sprint4'!E7</f>
         <v>0</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="36">
         <f>'burdonchart-sprint4'!F7</f>
         <v>1</v>
       </c>
-      <c r="G53" s="48">
+      <c r="G53" s="36">
         <f>'burdonchart-sprint4'!G7</f>
         <v>1</v>
       </c>
-      <c r="H53" s="48">
+      <c r="H53" s="36">
         <f>'burdonchart-sprint4'!H7</f>
         <v>0</v>
       </c>
-      <c r="I53" s="48">
+      <c r="I53" s="36">
         <f>'burdonchart-sprint4'!I7</f>
         <v>0</v>
       </c>
@@ -5600,23 +5600,23 @@
         <f>'burdonchart-sprint4'!D8</f>
         <v>2</v>
       </c>
-      <c r="E54" s="48">
+      <c r="E54" s="36">
         <f>'burdonchart-sprint4'!E8</f>
         <v>0</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="36">
         <f>'burdonchart-sprint4'!F8</f>
         <v>1</v>
       </c>
-      <c r="G54" s="48">
+      <c r="G54" s="36">
         <f>'burdonchart-sprint4'!G8</f>
         <v>1</v>
       </c>
-      <c r="H54" s="48">
+      <c r="H54" s="36">
         <f>'burdonchart-sprint4'!H8</f>
         <v>0</v>
       </c>
-      <c r="I54" s="48">
+      <c r="I54" s="36">
         <f>'burdonchart-sprint4'!I8</f>
         <v>0</v>
       </c>
@@ -5634,23 +5634,23 @@
         <f>'burdonchart-sprint4'!D9</f>
         <v>2</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="36">
         <f>'burdonchart-sprint4'!E9</f>
         <v>1</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="36">
         <f>'burdonchart-sprint4'!F9</f>
         <v>1</v>
       </c>
-      <c r="G55" s="48">
+      <c r="G55" s="36">
         <f>'burdonchart-sprint4'!G9</f>
         <v>0</v>
       </c>
-      <c r="H55" s="48">
+      <c r="H55" s="36">
         <f>'burdonchart-sprint4'!H9</f>
         <v>0</v>
       </c>
-      <c r="I55" s="48">
+      <c r="I55" s="36">
         <f>'burdonchart-sprint4'!I9</f>
         <v>0</v>
       </c>
@@ -5668,23 +5668,23 @@
         <f>'burdonchart-sprint4'!D10</f>
         <v>1</v>
       </c>
-      <c r="E56" s="48">
+      <c r="E56" s="36">
         <f>'burdonchart-sprint4'!E10</f>
         <v>0</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="36">
         <f>'burdonchart-sprint4'!F10</f>
         <v>0</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="36">
         <f>'burdonchart-sprint4'!G10</f>
         <v>0</v>
       </c>
-      <c r="H56" s="48">
+      <c r="H56" s="36">
         <f>'burdonchart-sprint4'!H10</f>
         <v>0</v>
       </c>
-      <c r="I56" s="48">
+      <c r="I56" s="36">
         <f>'burdonchart-sprint4'!I10</f>
         <v>1</v>
       </c>
@@ -5702,23 +5702,23 @@
         <f>'burdonchart-sprint4'!D11</f>
         <v>1</v>
       </c>
-      <c r="E57" s="48">
+      <c r="E57" s="36">
         <f>'burdonchart-sprint4'!E11</f>
         <v>0</v>
       </c>
-      <c r="F57" s="48">
+      <c r="F57" s="36">
         <f>'burdonchart-sprint4'!F11</f>
         <v>0</v>
       </c>
-      <c r="G57" s="48">
+      <c r="G57" s="36">
         <f>'burdonchart-sprint4'!G11</f>
         <v>0</v>
       </c>
-      <c r="H57" s="48">
+      <c r="H57" s="36">
         <f>'burdonchart-sprint4'!H11</f>
         <v>0</v>
       </c>
-      <c r="I57" s="48">
+      <c r="I57" s="36">
         <f>'burdonchart-sprint4'!I11</f>
         <v>1</v>
       </c>
@@ -5736,23 +5736,23 @@
         <f>'burdonchart-sprint4'!D12</f>
         <v>1</v>
       </c>
-      <c r="E58" s="48">
+      <c r="E58" s="36">
         <f>'burdonchart-sprint4'!E12</f>
         <v>0</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="36">
         <f>'burdonchart-sprint4'!F12</f>
         <v>0</v>
       </c>
-      <c r="G58" s="48">
+      <c r="G58" s="36">
         <f>'burdonchart-sprint4'!G12</f>
         <v>0</v>
       </c>
-      <c r="H58" s="48">
+      <c r="H58" s="36">
         <f>'burdonchart-sprint4'!H12</f>
         <v>0</v>
       </c>
-      <c r="I58" s="48">
+      <c r="I58" s="36">
         <f>'burdonchart-sprint4'!I12</f>
         <v>1</v>
       </c>
@@ -5770,23 +5770,23 @@
         <f>'burdonchart-sprint4'!D13</f>
         <v>1</v>
       </c>
-      <c r="E59" s="48">
+      <c r="E59" s="36">
         <f>'burdonchart-sprint4'!E13</f>
         <v>0</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="36">
         <f>'burdonchart-sprint4'!F13</f>
         <v>0</v>
       </c>
-      <c r="G59" s="48">
+      <c r="G59" s="36">
         <f>'burdonchart-sprint4'!G13</f>
         <v>1</v>
       </c>
-      <c r="H59" s="48">
+      <c r="H59" s="36">
         <f>'burdonchart-sprint4'!H13</f>
         <v>0</v>
       </c>
-      <c r="I59" s="48">
+      <c r="I59" s="36">
         <f>'burdonchart-sprint4'!I13</f>
         <v>0</v>
       </c>
@@ -5804,23 +5804,23 @@
         <f>'burdonchart-sprint4'!D14</f>
         <v>1</v>
       </c>
-      <c r="E60" s="48">
+      <c r="E60" s="36">
         <f>'burdonchart-sprint4'!E14</f>
         <v>0</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="36">
         <f>'burdonchart-sprint4'!F14</f>
         <v>0</v>
       </c>
-      <c r="G60" s="48">
+      <c r="G60" s="36">
         <f>'burdonchart-sprint4'!G14</f>
         <v>1</v>
       </c>
-      <c r="H60" s="48">
+      <c r="H60" s="36">
         <f>'burdonchart-sprint4'!H14</f>
         <v>0</v>
       </c>
-      <c r="I60" s="48">
+      <c r="I60" s="36">
         <f>'burdonchart-sprint4'!I14</f>
         <v>0</v>
       </c>
@@ -5838,23 +5838,23 @@
         <f>'burdonchart-sprint4'!D15</f>
         <v>1</v>
       </c>
-      <c r="E61" s="48">
+      <c r="E61" s="36">
         <f>'burdonchart-sprint4'!E15</f>
         <v>0</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F61" s="36">
         <f>'burdonchart-sprint4'!F15</f>
         <v>0</v>
       </c>
-      <c r="G61" s="48">
+      <c r="G61" s="36">
         <f>'burdonchart-sprint4'!G15</f>
         <v>1</v>
       </c>
-      <c r="H61" s="48">
+      <c r="H61" s="36">
         <f>'burdonchart-sprint4'!H15</f>
         <v>0</v>
       </c>
-      <c r="I61" s="48">
+      <c r="I61" s="36">
         <f>'burdonchart-sprint4'!I15</f>
         <v>0</v>
       </c>
@@ -5872,23 +5872,23 @@
         <f>'burdonchart-sprint4'!D16</f>
         <v>1</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="36">
         <f>'burdonchart-sprint4'!E16</f>
         <v>0</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="36">
         <f>'burdonchart-sprint4'!F16</f>
         <v>1</v>
       </c>
-      <c r="G62" s="48">
+      <c r="G62" s="36">
         <f>'burdonchart-sprint4'!G16</f>
         <v>0</v>
       </c>
-      <c r="H62" s="48">
+      <c r="H62" s="36">
         <f>'burdonchart-sprint4'!H16</f>
         <v>0</v>
       </c>
-      <c r="I62" s="48">
+      <c r="I62" s="36">
         <f>'burdonchart-sprint4'!I16</f>
         <v>0</v>
       </c>
@@ -5906,23 +5906,23 @@
         <f>'burdonchart-sprint4'!D17</f>
         <v>1</v>
       </c>
-      <c r="E63" s="48">
+      <c r="E63" s="36">
         <f>'burdonchart-sprint4'!E17</f>
         <v>0</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="36">
         <f>'burdonchart-sprint4'!F17</f>
         <v>1</v>
       </c>
-      <c r="G63" s="48">
+      <c r="G63" s="36">
         <f>'burdonchart-sprint4'!G17</f>
         <v>0</v>
       </c>
-      <c r="H63" s="48">
+      <c r="H63" s="36">
         <f>'burdonchart-sprint4'!H17</f>
         <v>0</v>
       </c>
-      <c r="I63" s="48">
+      <c r="I63" s="36">
         <f>'burdonchart-sprint4'!I17</f>
         <v>0</v>
       </c>
@@ -5940,23 +5940,23 @@
         <f>'burdonchart-sprint4'!D18</f>
         <v>1</v>
       </c>
-      <c r="E64" s="48">
+      <c r="E64" s="36">
         <f>'burdonchart-sprint4'!E18</f>
         <v>0</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="36">
         <f>'burdonchart-sprint4'!F18</f>
         <v>1</v>
       </c>
-      <c r="G64" s="48">
+      <c r="G64" s="36">
         <f>'burdonchart-sprint4'!G18</f>
         <v>0</v>
       </c>
-      <c r="H64" s="48">
+      <c r="H64" s="36">
         <f>'burdonchart-sprint4'!H18</f>
         <v>0</v>
       </c>
-      <c r="I64" s="48">
+      <c r="I64" s="36">
         <f>'burdonchart-sprint4'!I18</f>
         <v>0</v>
       </c>
@@ -5974,23 +5974,23 @@
         <f>'burdonchart-sprint4'!D19</f>
         <v>2</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="36">
         <f>'burdonchart-sprint4'!E19</f>
         <v>2</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="36">
         <f>'burdonchart-sprint4'!F19</f>
         <v>0</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="36">
         <f>'burdonchart-sprint4'!G19</f>
         <v>0</v>
       </c>
-      <c r="H65" s="48">
+      <c r="H65" s="36">
         <f>'burdonchart-sprint4'!H19</f>
         <v>0</v>
       </c>
-      <c r="I65" s="48">
+      <c r="I65" s="36">
         <f>'burdonchart-sprint4'!I19</f>
         <v>0</v>
       </c>
@@ -6008,23 +6008,23 @@
         <f>'burdonchart-sprint4'!D20</f>
         <v>2</v>
       </c>
-      <c r="E66" s="48">
+      <c r="E66" s="36">
         <f>'burdonchart-sprint4'!E20</f>
         <v>2</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="36">
         <f>'burdonchart-sprint4'!F20</f>
         <v>0</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="36">
         <f>'burdonchart-sprint4'!G20</f>
         <v>0</v>
       </c>
-      <c r="H66" s="48">
+      <c r="H66" s="36">
         <f>'burdonchart-sprint4'!H20</f>
         <v>0</v>
       </c>
-      <c r="I66" s="48">
+      <c r="I66" s="36">
         <f>'burdonchart-sprint4'!I20</f>
         <v>0</v>
       </c>
@@ -6042,23 +6042,23 @@
         <f>'burdonchart-sprint4'!D21</f>
         <v>2</v>
       </c>
-      <c r="E67" s="48">
+      <c r="E67" s="36">
         <f>'burdonchart-sprint4'!E21</f>
         <v>2</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F67" s="36">
         <f>'burdonchart-sprint4'!F21</f>
         <v>0</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="36">
         <f>'burdonchart-sprint4'!G21</f>
         <v>0</v>
       </c>
-      <c r="H67" s="48">
+      <c r="H67" s="36">
         <f>'burdonchart-sprint4'!H21</f>
         <v>0</v>
       </c>
-      <c r="I67" s="48">
+      <c r="I67" s="36">
         <f>'burdonchart-sprint4'!I21</f>
         <v>0</v>
       </c>
@@ -6070,11 +6070,11 @@
     <row r="68" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="D68" s="18"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
       <c r="J68" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6083,11 +6083,11 @@
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C69" s="11"/>
       <c r="D69" s="18"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6096,11 +6096,11 @@
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C70" s="11"/>
       <c r="D70" s="18"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6290,7 +6290,7 @@
   <dimension ref="A1:H793"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="C23:H23"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7689,7 +7689,7 @@
   <dimension ref="A1:Z931"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I49" sqref="I47:I49"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7893,12 +7893,12 @@
         <f>CONCATENATE(B4,"_",A6)</f>
         <v>REQ001_1</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
@@ -7932,12 +7932,12 @@
         <f>CONCATENATE(B4,"_",A7)</f>
         <v>REQ001_2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
@@ -7971,12 +7971,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ001_3</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
@@ -8005,10 +8005,10 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -8033,10 +8033,10 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -8196,12 +8196,12 @@
         <f>CONCATENATE(B12,"_",A14)</f>
         <v>REQ002_1</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="4" t="s">
         <v>7</v>
       </c>
@@ -8235,12 +8235,12 @@
         <f>CONCATENATE(B12,"_",A15)</f>
         <v>REQ002_2</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
@@ -8274,12 +8274,12 @@
         <f>CONCATENATE(B12,"_",A16)</f>
         <v>REQ002_3</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="4" t="s">
         <v>7</v>
       </c>
@@ -8499,12 +8499,12 @@
         <f>CONCATENATE(B20,"_",A22)</f>
         <v>REQ003_1</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="4" t="s">
         <v>7</v>
       </c>
@@ -8538,12 +8538,12 @@
         <f>CONCATENATE(B20,"_",A23)</f>
         <v>REQ003_2</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="4" t="s">
         <v>7</v>
       </c>
@@ -8577,12 +8577,12 @@
         <f>CONCATENATE(B20,"_",A24)</f>
         <v>REQ003_3</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="4" t="s">
         <v>7</v>
       </c>
@@ -8802,12 +8802,12 @@
         <f>CONCATENATE(B28,"_",A30)</f>
         <v>REQ004_1</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="4" t="s">
         <v>7</v>
       </c>
@@ -8841,12 +8841,12 @@
         <f>CONCATENATE(B28,"_",A31)</f>
         <v>REQ004_2</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
@@ -8880,12 +8880,12 @@
         <f>CONCATENATE(B28,"_",A32)</f>
         <v>REQ004_3</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="4" t="s">
         <v>7</v>
       </c>
@@ -9105,12 +9105,12 @@
         <f>CONCATENATE(B36,"_",A38)</f>
         <v>REQ005_1</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="4" t="s">
         <v>7</v>
       </c>
@@ -9144,12 +9144,12 @@
         <f>CONCATENATE(B36,"_",A39)</f>
         <v>REQ005_2</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="4" t="s">
         <v>7</v>
       </c>
@@ -9183,12 +9183,12 @@
         <f>CONCATENATE(B36,"_",A40)</f>
         <v>REQ005_3</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="4" t="s">
         <v>7</v>
       </c>
@@ -9222,12 +9222,12 @@
         <f>CONCATENATE(B36,"_",A41)</f>
         <v>REQ005_4</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="4" t="s">
         <v>7</v>
       </c>
@@ -9447,12 +9447,12 @@
         <f>CONCATENATE(B45,"_",A47)</f>
         <v>REQ006_1</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="4" t="s">
         <v>7</v>
       </c>
@@ -9486,12 +9486,12 @@
         <f>CONCATENATE(B45,"_",A48)</f>
         <v>REQ006_2</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
@@ -9525,12 +9525,12 @@
         <f>CONCATENATE(B45,"_",A49)</f>
         <v>REQ006_3</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="4" t="s">
         <v>7</v>
       </c>
@@ -34254,11 +34254,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C8:F8"/>
@@ -34275,6 +34270,11 @@
     <mergeCell ref="C47:F47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -34297,8 +34297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF3BD5-229C-40B4-B2E3-EFEE31A879A4}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34374,12 +34374,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -34396,12 +34396,12 @@
         <f>CONCATENATE(B4,"_",A6)</f>
         <v>REQ007_1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
@@ -34418,12 +34418,12 @@
         <f>CONCATENATE(B4,"_",A7)</f>
         <v>REQ007_2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
@@ -34440,12 +34440,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ007_3</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
@@ -34455,10 +34455,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="8"/>
       <c r="H9" s="5"/>
       <c r="I9" s="8"/>
@@ -34524,12 +34524,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -34546,12 +34546,12 @@
         <f>CONCATENATE(B13,"_",A15)</f>
         <v>REQ008_1</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
@@ -34568,12 +34568,12 @@
         <f>CONCATENATE(B13,"_",A16)</f>
         <v>REQ008_2</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
@@ -34590,12 +34590,12 @@
         <f>CONCATENATE(B13,"_",A17)</f>
         <v>REQ008_3</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
@@ -34612,12 +34612,12 @@
         <f>CONCATENATE(B13,"_",A18)</f>
         <v>REQ008_4</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
@@ -34687,12 +34687,12 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="8" t="s">
         <v>109</v>
       </c>
@@ -34709,12 +34709,12 @@
         <f>CONCATENATE(B22,"_",A24)</f>
         <v>REQ009_1</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
@@ -34731,12 +34731,12 @@
         <f>CONCATENATE(B22,"_",A25)</f>
         <v>REQ009_2</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
@@ -34753,12 +34753,12 @@
         <f>CONCATENATE(B22,"_",A26)</f>
         <v>REQ009_3</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
@@ -34775,12 +34775,12 @@
         <f>CONCATENATE(B22,"_",A27)</f>
         <v>REQ009_4</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
@@ -34797,12 +34797,12 @@
         <f>CONCATENATE(B22,"_",A28)</f>
         <v>REQ009_5</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
@@ -34872,12 +34872,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -34894,12 +34894,12 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ010_1</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
@@ -34916,12 +34916,12 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ010_2</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
@@ -34938,12 +34938,12 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ010_3</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
@@ -34952,13 +34952,23 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
@@ -34970,16 +34980,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35002,8 +35002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1960D10B-2ED9-4BB2-830C-CA9857348531}">
   <dimension ref="A3:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="C22:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35081,12 +35081,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -35103,12 +35103,12 @@
         <f>CONCATENATE(B4,"_",A6)</f>
         <v>REQ011_1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="22" t="s">
         <v>4</v>
       </c>
@@ -35125,12 +35125,12 @@
         <f>CONCATENATE(B4,"_",A7)</f>
         <v>REQ011_2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="22" t="s">
         <v>4</v>
       </c>
@@ -35147,12 +35147,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ011_3</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="22" t="s">
         <v>4</v>
       </c>
@@ -35162,10 +35162,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="8"/>
       <c r="H9" s="24"/>
       <c r="I9" s="8"/>
@@ -35231,12 +35231,12 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="8" t="s">
         <v>109</v>
       </c>
@@ -35253,12 +35253,12 @@
         <f>CONCATENATE(B13,"_",A15)</f>
         <v>REQ012_1</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="22" t="s">
         <v>4</v>
       </c>
@@ -35275,12 +35275,12 @@
         <f>CONCATENATE(B13,"_",A16)</f>
         <v>REQ012_2</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="22" t="s">
         <v>4</v>
       </c>
@@ -35297,12 +35297,12 @@
         <f>CONCATENATE(B13,"_",A17)</f>
         <v>REQ012_3</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="22" t="s">
         <v>4</v>
       </c>
@@ -35319,12 +35319,12 @@
         <f>CONCATENATE(B13,"_",A18)</f>
         <v>REQ012_4</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="22" t="s">
         <v>4</v>
       </c>
@@ -35341,12 +35341,12 @@
         <f>CONCATENATE(B13,"_",A19)</f>
         <v>REQ012_5</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="22" t="s">
         <v>4</v>
       </c>
@@ -35426,12 +35426,12 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="8" t="s">
         <v>109</v>
       </c>
@@ -35448,12 +35448,12 @@
         <f>CONCATENATE(B24,"_",A26)</f>
         <v>REQ013_1</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="22" t="s">
         <v>4</v>
       </c>
@@ -35470,12 +35470,12 @@
         <f>CONCATENATE(B24,"_",A27)</f>
         <v>REQ013_2</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="22" t="s">
         <v>4</v>
       </c>
@@ -35545,12 +35545,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -35567,12 +35567,12 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ014_1</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="22" t="s">
         <v>4</v>
       </c>
@@ -35589,12 +35589,12 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ014_2</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="22" t="s">
         <v>4</v>
       </c>
@@ -35611,12 +35611,12 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ014_3</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="22" t="s">
         <v>4</v>
       </c>
@@ -35632,12 +35632,12 @@
         <f>CONCATENATE(B35,"_",A37)</f>
         <v>REQ014_2_4</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="22" t="s">
         <v>4</v>
       </c>
@@ -35647,17 +35647,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C35:F35"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
@@ -35666,6 +35655,17 @@
     <mergeCell ref="C33:F33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35688,8 +35688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFFAE19-3DC0-4683-8054-9C282C53667C}">
   <dimension ref="A3:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C8:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35767,12 +35767,12 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="8" t="s">
         <v>109</v>
       </c>
@@ -35789,12 +35789,12 @@
         <f>CONCATENATE(B4,"_",A6)</f>
         <v>REQ015_1</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="29" t="s">
         <v>7</v>
       </c>
@@ -35811,12 +35811,12 @@
         <f>CONCATENATE(B4,"_",A7)</f>
         <v>REQ015_2</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="29" t="s">
         <v>7</v>
       </c>
@@ -35833,12 +35833,12 @@
         <f>CONCATENATE(B4,"_",A8)</f>
         <v>REQ015_3</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="29" t="s">
         <v>7</v>
       </c>
@@ -35908,12 +35908,12 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="8" t="s">
         <v>109</v>
       </c>
@@ -35930,12 +35930,12 @@
         <f>CONCATENATE(B11,"_",A13)</f>
         <v>REQ016_1</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="29" t="s">
         <v>7</v>
       </c>
@@ -35952,12 +35952,12 @@
         <f>CONCATENATE(B11,"_",A14)</f>
         <v>REQ016_2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="29" t="s">
         <v>7</v>
       </c>
@@ -35974,12 +35974,12 @@
         <f>CONCATENATE(B11,"_",A15)</f>
         <v>REQ016_3</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="29" t="s">
         <v>7</v>
       </c>
@@ -36049,12 +36049,12 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="8" t="s">
         <v>109</v>
       </c>
@@ -36071,12 +36071,12 @@
         <f>CONCATENATE(B18,"_",A20)</f>
         <v>REQ018_1</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="29" t="s">
         <v>7</v>
       </c>
@@ -36093,12 +36093,12 @@
         <f>CONCATENATE(B18,"_",A21)</f>
         <v>REQ018_2</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="29" t="s">
         <v>7</v>
       </c>
@@ -36115,12 +36115,12 @@
         <f>CONCATENATE(B18,"_",A22)</f>
         <v>REQ018_3</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="29" t="s">
         <v>7</v>
       </c>
@@ -36189,12 +36189,12 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="8" t="s">
         <v>109</v>
       </c>
@@ -36211,12 +36211,12 @@
         <f>CONCATENATE(B25,"_",A27)</f>
         <v>REQ019_1</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="29" t="s">
         <v>7</v>
       </c>
@@ -36233,12 +36233,12 @@
         <f>CONCATENATE(B25,"_",A28)</f>
         <v>REQ019_2</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="29" t="s">
         <v>7</v>
       </c>
@@ -36255,12 +36255,12 @@
         <f>CONCATENATE(B25,"_",A29)</f>
         <v>REQ019_3</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="29" t="s">
         <v>7</v>
       </c>
@@ -36329,12 +36329,12 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="8" t="s">
         <v>109</v>
       </c>
@@ -36351,12 +36351,12 @@
         <f>CONCATENATE(B32,"_",A34)</f>
         <v>REQ020_1</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="29" t="s">
         <v>7</v>
       </c>
@@ -36373,12 +36373,12 @@
         <f>CONCATENATE(B32,"_",A35)</f>
         <v>REQ020_2</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="29" t="s">
         <v>7</v>
       </c>
@@ -36395,12 +36395,12 @@
         <f>CONCATENATE(B32,"_",A36)</f>
         <v>REQ020_3</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="29" t="s">
         <v>7</v>
       </c>
@@ -36469,12 +36469,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="42" t="s">
+      <c r="C41" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="8" t="s">
         <v>109</v>
       </c>
@@ -36491,12 +36491,12 @@
         <f>CONCATENATE(B40,"_",A42)</f>
         <v>REQ021_1</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="29" t="s">
         <v>7</v>
       </c>
@@ -36513,12 +36513,12 @@
         <f>CONCATENATE(B40,"_",A43)</f>
         <v>REQ021_2</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="29" t="s">
         <v>7</v>
       </c>
@@ -36535,12 +36535,12 @@
         <f>CONCATENATE(B40,"_",A44)</f>
         <v>REQ021_3</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="29" t="s">
         <v>7</v>
       </c>
@@ -36550,11 +36550,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C13:F13"/>
@@ -36566,14 +36569,11 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36599,8 +36599,8 @@
   </sheetPr>
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -37737,16 +37737,16 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -37767,16 +37767,16 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
@@ -64795,7 +64795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AD0B63-AC3F-471E-B34D-1DFEBD2B4B52}">
   <dimension ref="C3:V26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -65301,28 +65301,28 @@
       </c>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O25" s="46" t="s">
+      <c r="O25" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -65342,7 +65342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5749CD-A7E1-40D4-8529-DA55A195F779}">
   <dimension ref="C3:V25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O24" sqref="O24:V24"/>
     </sheetView>
   </sheetViews>
@@ -65819,28 +65819,28 @@
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O24" s="46" t="s">
+      <c r="O24" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
     </row>
     <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
